--- a/documents/Arten von Fähigkeiten.xlsx
+++ b/documents/Arten von Fähigkeiten.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\Werwolf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve\Programme\Java\Werwolf\src\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EB7FA38-3A37-4519-B526-FE0DD3B834A7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73797ED3-6BE0-4CFE-97C9-21FED8FF2CD9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5895" xr2:uid="{6DC2045D-5F81-40EA-8298-96D39AE66DD4}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="34">
   <si>
     <t>selbst</t>
   </si>
@@ -117,6 +117,21 @@
   </si>
   <si>
     <t>Prostituierte</t>
+  </si>
+  <si>
+    <t>mitspieler</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>spammable</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -158,7 +173,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -177,6 +192,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3737"/>
         </patternFill>
       </fill>
     </dxf>
@@ -495,26 +517,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1609C201-A7B3-4E3A-837A-C4A605809596}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -524,8 +555,14 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -535,8 +572,14 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -546,8 +589,14 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -555,10 +604,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -568,8 +623,14 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -579,8 +640,14 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -590,8 +657,14 @@
       <c r="C8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -601,8 +674,14 @@
       <c r="C9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -612,8 +691,14 @@
       <c r="C10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -623,8 +708,14 @@
       <c r="C11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -634,8 +725,14 @@
       <c r="C12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -645,8 +742,14 @@
       <c r="C13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -656,8 +759,14 @@
       <c r="C14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -667,8 +776,14 @@
       <c r="C15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -678,8 +793,14 @@
       <c r="C16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -689,8 +810,14 @@
       <c r="C17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -700,8 +827,14 @@
       <c r="C18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -711,8 +844,14 @@
       <c r="C19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -722,8 +861,14 @@
       <c r="C20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -733,8 +878,14 @@
       <c r="C21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -744,8 +895,14 @@
       <c r="C22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -755,8 +912,14 @@
       <c r="C23" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -764,19 +927,50 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:C1048576">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="ja">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="nein">
+      <formula>NOT(ISERROR(SEARCH("nein",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="ja">
       <formula>NOT(ISERROR(SEARCH("ja",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="nein">
-      <formula>NOT(ISERROR(SEARCH("nein",B1)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:F24">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{9D3BBC97-039E-494B-944B-9F2BCEB7AA6C}">
+            <xm:f>NOT(ISERROR(SEARCH("true",E2)))</xm:f>
+            <xm:f>"true"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E2:F24</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>